--- a/DataQuality_Models.xlsx
+++ b/DataQuality_Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ozminerals-my.sharepoint.com/personal/richard_scott_ozminerals_com/Documents/Exploration/Geoscience-Data-Quality-for-Machine-Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{34DC4501-B446-489E-96F6-9298FA39CBF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EE95B6A2-13A8-4EBD-B13B-F9B241B68B1F}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{34DC4501-B446-489E-96F6-9298FA39CBF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7FAF4C13-399D-437D-987A-0D62BC95F953}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9DEDE5E-4471-4F5A-AC8B-D4F64EE1811C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="83">
   <si>
     <t>Dataset</t>
   </si>
@@ -262,6 +262,27 @@
   </si>
   <si>
     <t>Scale</t>
+  </si>
+  <si>
+    <t>AusAEM</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>https://ecat.ga.gov.au/geonetwork/srv/eng/catalog.search#/metadata/124092</t>
+  </si>
+  <si>
+    <t>AusAEM Year 1 NT/QLD: TEMPEST® airborne electromagnetic data and Em Flow® conductivity estimates</t>
+  </si>
+  <si>
+    <t>Geophysics</t>
+  </si>
+  <si>
+    <t>Electromagnetics</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
 </sst>
 </file>
@@ -269,7 +290,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -359,8 +380,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -677,11 +698,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63D4C59-F36B-48A1-AE9A-D5AD99EC9BB5}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -689,15 +710,15 @@
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.88671875" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
     <col min="9" max="9" width="67.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="73.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -770,13 +791,16 @@
         <v>6</v>
       </c>
       <c r="K2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -795,7 +819,7 @@
         <v>1.25E-3</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F28" si="0">ROUND(B3*C3*E3*100*3,2)</f>
+        <f t="shared" ref="F3:F30" si="0">ROUND(B3*C3*E3*100*3,2)</f>
         <v>1.1299999999999999</v>
       </c>
       <c r="G3">
@@ -811,13 +835,16 @@
         <v>11</v>
       </c>
       <c r="K3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -852,13 +879,16 @@
         <v>72</v>
       </c>
       <c r="K4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" t="s">
         <v>74</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -893,13 +923,16 @@
         <v>60</v>
       </c>
       <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -940,7 +973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -981,7 +1014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1022,7 +1055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1063,7 +1096,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1104,7 +1137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1145,7 +1178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1186,7 +1219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1227,7 +1260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1268,7 +1301,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1309,7 +1342,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1350,7 +1383,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1391,7 +1424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1432,7 +1465,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1467,10 +1500,16 @@
         <v>69</v>
       </c>
       <c r="K19" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1502,10 +1541,16 @@
         <v>35</v>
       </c>
       <c r="K20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1537,10 +1582,16 @@
         <v>35</v>
       </c>
       <c r="K21" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1572,10 +1623,16 @@
         <v>35</v>
       </c>
       <c r="K22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1614,8 +1671,11 @@
       <c r="L23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1629,7 +1689,7 @@
         <v>90</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" ref="E24:E28" si="7">1/D24</f>
+        <f t="shared" ref="E24:E30" si="7">1/D24</f>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="F24" s="4">
@@ -1655,7 +1715,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1695,7 +1755,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1732,7 +1792,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1769,7 +1829,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1807,7 +1867,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1826,6 +1886,49 @@
       </c>
       <c r="L29" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>20000</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="7"/>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="G30">
+        <v>2019</v>
+      </c>
+      <c r="H30" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K30" t="s">
+        <v>80</v>
+      </c>
+      <c r="L30" t="s">
+        <v>81</v>
+      </c>
+      <c r="M30" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/DataQuality_Models.xlsx
+++ b/DataQuality_Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ozminerals-my.sharepoint.com/personal/richard_scott_ozminerals_com/Documents/Exploration/Geoscience-Data-Quality-for-Machine-Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{34DC4501-B446-489E-96F6-9298FA39CBF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7FAF4C13-399D-437D-987A-0D62BC95F953}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{34DC4501-B446-489E-96F6-9298FA39CBF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0A766804-7706-41E8-B841-38A463FBC475}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9DEDE5E-4471-4F5A-AC8B-D4F64EE1811C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="85">
   <si>
     <t>Dataset</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>AlOH_Group_Composition</t>
+  </si>
+  <si>
+    <t>AlOH_Group_Content</t>
   </si>
 </sst>
 </file>
@@ -698,11 +704,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63D4C59-F36B-48A1-AE9A-D5AD99EC9BB5}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1689,7 +1695,7 @@
         <v>90</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" ref="E24:E30" si="7">1/D24</f>
+        <f t="shared" ref="E24:E32" si="7">1/D24</f>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="F24" s="4">
@@ -1929,6 +1935,82 @@
       </c>
       <c r="M30" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="7">
+        <f>48.27/48.27</f>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>90</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="7"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" ref="F31:F32" si="8">ROUND(B31*C31*E31*100*3,2)</f>
+        <v>6.67</v>
+      </c>
+      <c r="G31">
+        <v>2012</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" s="7">
+        <f t="shared" ref="C32" si="9">48.27/48.27</f>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>90</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="7"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="8"/>
+        <v>6.67</v>
+      </c>
+      <c r="G32">
+        <v>2012</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/DataQuality_Models.xlsx
+++ b/DataQuality_Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ozminerals-my.sharepoint.com/personal/richard_scott_ozminerals_com/Documents/Exploration/Geoscience-Data-Quality-for-Machine-Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{34DC4501-B446-489E-96F6-9298FA39CBF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0A766804-7706-41E8-B841-38A463FBC475}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="8_{34DC4501-B446-489E-96F6-9298FA39CBF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A7A9896A-878C-4EFF-9ABF-B24911E6D85B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9DEDE5E-4471-4F5A-AC8B-D4F64EE1811C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="133">
   <si>
     <t>Dataset</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Morphology</t>
   </si>
   <si>
-    <t>Incorrect Bits</t>
-  </si>
-  <si>
     <t>https://ecat.ga.gov.au/geonetwork/srv/eng/catalog.search#/metadata/89604</t>
   </si>
   <si>
@@ -289,6 +286,153 @@
   </si>
   <si>
     <t>AlOH_Group_Content</t>
+  </si>
+  <si>
+    <t>Fault lines from 1M geology</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>Contact lines from 1M geology</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>SEEBaseExploracorn</t>
+  </si>
+  <si>
+    <t>HydroLithology</t>
+  </si>
+  <si>
+    <t>HydroGeology</t>
+  </si>
+  <si>
+    <t>Catchments-line</t>
+  </si>
+  <si>
+    <t>Depth to Basement</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t>lithology2-lithology</t>
+  </si>
+  <si>
+    <t>Lithology rolled up to 55 classes</t>
+  </si>
+  <si>
+    <t>2019_A4_CBA_ONSHORE</t>
+  </si>
+  <si>
+    <t>2019_A4_CBA_ONSHORE_1VDGRAV</t>
+  </si>
+  <si>
+    <t>2019_A7_DGIR_ONSHORE</t>
+  </si>
+  <si>
+    <t>2019_A7_DGIR_ONSHORE_1VDGRAV</t>
+  </si>
+  <si>
+    <t>Total Magnetic Intensity grid of Australia 2019 80m.tif</t>
+  </si>
+  <si>
+    <t>radmap_v4_2019_filtered_ppmu</t>
+  </si>
+  <si>
+    <t>magmap_v7_2019_1VD</t>
+  </si>
+  <si>
+    <t>magmap_v7_2019_RTP</t>
+  </si>
+  <si>
+    <t>radmap_v4_2019_filtered_dose</t>
+  </si>
+  <si>
+    <t>Total Magnetic Intensity grid of Australia 2019 40m.tif</t>
+  </si>
+  <si>
+    <t>radmap_v4_2019_filtered_ppmth</t>
+  </si>
+  <si>
+    <t>radmap_v4_2019_filtered_pctk</t>
+  </si>
+  <si>
+    <t>Y14</t>
+  </si>
+  <si>
+    <t>twi_3s</t>
+  </si>
+  <si>
+    <t>national_Wii_RF</t>
+  </si>
+  <si>
+    <t>FR12</t>
+  </si>
+  <si>
+    <t>AusREM</t>
+  </si>
+  <si>
+    <t>Seismic</t>
+  </si>
+  <si>
+    <t>DER_000_999_EV_N_P_AU_NAT_C_20150601</t>
+  </si>
+  <si>
+    <t>Depth of Regolith 2</t>
+  </si>
+  <si>
+    <t>https://data.csiro.au/collections/collection/CIcsiro:5588/SQtopographical%20wetness%20index/RP1/RS25/RORELEVANCE/STsearch-by-keyword/RI1/RT3/</t>
+  </si>
+  <si>
+    <t>Topographic Wetness Index derived from 1" SRTM DEM-H -3" derived version</t>
+  </si>
+  <si>
+    <t>Wetness Index</t>
+  </si>
+  <si>
+    <t>Weathering Intensity</t>
+  </si>
+  <si>
+    <t>Hydrology</t>
+  </si>
+  <si>
+    <t>https://ecat.ga.gov.au/geonetwork/srv/eng/catalog.search#/metadata/131978</t>
+  </si>
+  <si>
+    <t>https://ecat.ga.gov.au/geonetwork/srv/eng/catalog.search#/metadata/131974</t>
+  </si>
+  <si>
+    <t>https://ecat.ga.gov.au/geonetwork/srv/eng/catalog.search#/metadata/131988</t>
+  </si>
+  <si>
+    <t>http://http://rses.anu.edu.au/seismology/AuSREM/AusMoho/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work in progress - </t>
+  </si>
+  <si>
+    <t>https://osf.io/twksd/</t>
+  </si>
+  <si>
+    <t>https://researchdata.edu.au/weathering-intensity-model-australia/1361069</t>
+  </si>
+  <si>
+    <t>https://data.csiro.au/collections/collection/CI29936</t>
+  </si>
+  <si>
+    <t>https://ecat.ga.gov.au/geonetwork/srv/eng/catalog.search#/metadata/32368</t>
+  </si>
+  <si>
+    <t>https://www.geognostics.com/seebase-depth-to-basement</t>
+  </si>
+  <si>
+    <t>AusMoho</t>
   </si>
 </sst>
 </file>
@@ -373,7 +517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -389,6 +533,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -704,11 +851,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63D4C59-F36B-48A1-AE9A-D5AD99EC9BB5}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -722,6 +869,8 @@
     <col min="8" max="8" width="11.109375" customWidth="1"/>
     <col min="9" max="9" width="67.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="73.5546875" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -741,13 +890,13 @@
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -760,6 +909,9 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -797,7 +949,7 @@
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
@@ -841,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
@@ -862,15 +1014,15 @@
         <v>1</v>
       </c>
       <c r="D4" s="8">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" ref="E4:E5" si="2">1/D4</f>
-        <v>1.1111111111111112E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="G4">
         <v>2015</v>
@@ -879,19 +1031,19 @@
         <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" t="s">
         <v>72</v>
-      </c>
-      <c r="K4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -906,15 +1058,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="8">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="2"/>
-        <v>1.1111111111111112E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="G5">
         <v>2015</v>
@@ -929,13 +1081,13 @@
         <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1500,19 +1652,19 @@
         <v>4</v>
       </c>
       <c r="I19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="K19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L19" t="s">
         <v>49</v>
       </c>
       <c r="M19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1547,13 +1699,13 @@
         <v>35</v>
       </c>
       <c r="K20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L20" t="s">
         <v>49</v>
       </c>
       <c r="M20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1588,13 +1740,13 @@
         <v>35</v>
       </c>
       <c r="K21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L21" t="s">
         <v>49</v>
       </c>
       <c r="M21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1629,13 +1781,13 @@
         <v>35</v>
       </c>
       <c r="K22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L22" t="s">
         <v>49</v>
       </c>
       <c r="M22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1678,7 +1830,7 @@
         <v>47</v>
       </c>
       <c r="M23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1870,7 +2022,7 @@
         <v>48</v>
       </c>
       <c r="L28" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1887,6 +2039,9 @@
       <c r="I29" t="s">
         <v>55</v>
       </c>
+      <c r="J29" t="s">
+        <v>84</v>
+      </c>
       <c r="K29" t="s">
         <v>48</v>
       </c>
@@ -1896,7 +2051,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -1919,34 +2074,34 @@
         <v>2019</v>
       </c>
       <c r="H30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" t="s">
         <v>77</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" t="s">
         <v>79</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>80</v>
       </c>
-      <c r="L30" t="s">
-        <v>81</v>
-      </c>
       <c r="M30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" s="7">
-        <f>48.27/48.27</f>
-        <v>1</v>
+        <f>35.52/35.76*C32</f>
+        <v>0.98491216201097476</v>
       </c>
       <c r="D31">
         <v>90</v>
@@ -1956,8 +2111,8 @@
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" ref="F31:F32" si="8">ROUND(B31*C31*E31*100*3,2)</f>
-        <v>6.67</v>
+        <f t="shared" ref="F31:F33" si="8">ROUND(B31*C31*E31*100*3,2)</f>
+        <v>6.57</v>
       </c>
       <c r="G31">
         <v>2012</v>
@@ -1977,14 +2132,14 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" s="7">
-        <f t="shared" ref="C32" si="9">48.27/48.27</f>
-        <v>1</v>
+        <f>50.56/50.99</f>
+        <v>0.99156697391645421</v>
       </c>
       <c r="D32">
         <v>90</v>
@@ -1995,7 +2150,7 @@
       </c>
       <c r="F32" s="4">
         <f t="shared" si="8"/>
-        <v>6.67</v>
+        <v>6.61</v>
       </c>
       <c r="G32">
         <v>2012</v>
@@ -2013,8 +2168,964 @@
         <v>30</v>
       </c>
     </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D33">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" ref="E33" si="9">1/D33</f>
+        <v>1E-3</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="8"/>
+        <v>0.2</v>
+      </c>
+      <c r="G33">
+        <v>2012</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" t="s">
+        <v>48</v>
+      </c>
+      <c r="L33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D34">
+        <v>1000</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" ref="E34:E35" si="10">1/D34</f>
+        <v>1E-3</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" ref="F34:F35" si="11">ROUND(B34*C34*E34*100*3,2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="G34">
+        <v>2012</v>
+      </c>
+      <c r="H34" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>12000</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="10"/>
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="11"/>
+        <v>0.05</v>
+      </c>
+      <c r="G35">
+        <v>2020</v>
+      </c>
+      <c r="H35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" t="s">
+        <v>131</v>
+      </c>
+      <c r="K35" t="s">
+        <v>48</v>
+      </c>
+      <c r="L35" t="s">
+        <v>93</v>
+      </c>
+      <c r="M35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>5000</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" ref="E36:E38" si="12">1/D36</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" ref="F36:F38" si="13">ROUND(B36*C36*E36*100*3,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1987</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K36" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>5000</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="12"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1987</v>
+      </c>
+      <c r="H37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K37" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>5000</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="12"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1987</v>
+      </c>
+      <c r="H38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K38" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1000</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" ref="E39:E54" si="14">1/D39</f>
+        <v>1E-3</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" ref="F39:F54" si="15">ROUND(B39*C39*E39*100*3,2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="G39">
+        <v>2012</v>
+      </c>
+      <c r="H39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+      <c r="J39" t="s">
+        <v>96</v>
+      </c>
+      <c r="K39" t="s">
+        <v>48</v>
+      </c>
+      <c r="L39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>400</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="14"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="15"/>
+        <v>2.25</v>
+      </c>
+      <c r="G40">
+        <v>2019</v>
+      </c>
+      <c r="H40" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" t="s">
+        <v>79</v>
+      </c>
+      <c r="L40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>400</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="14"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" si="15"/>
+        <v>2.25</v>
+      </c>
+      <c r="G41">
+        <v>2019</v>
+      </c>
+      <c r="H41" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" t="s">
+        <v>79</v>
+      </c>
+      <c r="L41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>400</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="14"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" si="15"/>
+        <v>2.25</v>
+      </c>
+      <c r="G42">
+        <v>2019</v>
+      </c>
+      <c r="H42" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" t="s">
+        <v>79</v>
+      </c>
+      <c r="L42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>400</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" si="14"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F43" s="4">
+        <f t="shared" si="15"/>
+        <v>2.25</v>
+      </c>
+      <c r="G43">
+        <v>2019</v>
+      </c>
+      <c r="H43" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" t="s">
+        <v>79</v>
+      </c>
+      <c r="L43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>80</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="14"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" si="15"/>
+        <v>11.25</v>
+      </c>
+      <c r="G44">
+        <v>2019</v>
+      </c>
+      <c r="H44" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" t="s">
+        <v>79</v>
+      </c>
+      <c r="L44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>40</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="14"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" si="15"/>
+        <v>22.5</v>
+      </c>
+      <c r="G45">
+        <v>2019</v>
+      </c>
+      <c r="H45" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" t="s">
+        <v>79</v>
+      </c>
+      <c r="L45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>80</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="14"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" si="15"/>
+        <v>11.25</v>
+      </c>
+      <c r="G46">
+        <v>2019</v>
+      </c>
+      <c r="H46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" t="s">
+        <v>79</v>
+      </c>
+      <c r="L46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>80</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" si="14"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" si="15"/>
+        <v>11.25</v>
+      </c>
+      <c r="G47">
+        <v>2019</v>
+      </c>
+      <c r="H47" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" t="s">
+        <v>79</v>
+      </c>
+      <c r="L47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>110</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="14"/>
+        <v>9.0909090909090905E-3</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" si="15"/>
+        <v>8.18</v>
+      </c>
+      <c r="G48">
+        <v>2019</v>
+      </c>
+      <c r="H48" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>110</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="14"/>
+        <v>9.0909090909090905E-3</v>
+      </c>
+      <c r="F49" s="4">
+        <f t="shared" si="15"/>
+        <v>8.18</v>
+      </c>
+      <c r="G49">
+        <v>2019</v>
+      </c>
+      <c r="H49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" t="s">
+        <v>123</v>
+      </c>
+      <c r="K49" t="s">
+        <v>79</v>
+      </c>
+      <c r="L49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>110</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="14"/>
+        <v>9.0909090909090905E-3</v>
+      </c>
+      <c r="F50" s="4">
+        <f t="shared" si="15"/>
+        <v>8.18</v>
+      </c>
+      <c r="G50">
+        <v>2019</v>
+      </c>
+      <c r="H50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K50" t="s">
+        <v>79</v>
+      </c>
+      <c r="L50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>110</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="14"/>
+        <v>9.0909090909090905E-3</v>
+      </c>
+      <c r="F51" s="4">
+        <f t="shared" si="15"/>
+        <v>8.18</v>
+      </c>
+      <c r="G51">
+        <v>2019</v>
+      </c>
+      <c r="H51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" t="s">
+        <v>122</v>
+      </c>
+      <c r="K51" t="s">
+        <v>79</v>
+      </c>
+      <c r="L51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" s="7">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>10000</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="14"/>
+        <v>1E-4</v>
+      </c>
+      <c r="F52" s="4">
+        <f t="shared" si="15"/>
+        <v>0.06</v>
+      </c>
+      <c r="G52">
+        <v>2020</v>
+      </c>
+      <c r="H52" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K52" t="s">
+        <v>79</v>
+      </c>
+      <c r="L52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>10000</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="14"/>
+        <v>1E-4</v>
+      </c>
+      <c r="F53" s="4">
+        <f t="shared" si="15"/>
+        <v>0.06</v>
+      </c>
+      <c r="G53">
+        <v>2020</v>
+      </c>
+      <c r="H53" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K53" t="s">
+        <v>79</v>
+      </c>
+      <c r="L53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" s="7">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>10000</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" si="14"/>
+        <v>1E-4</v>
+      </c>
+      <c r="F54" s="4">
+        <f t="shared" si="15"/>
+        <v>0.06</v>
+      </c>
+      <c r="G54">
+        <v>2020</v>
+      </c>
+      <c r="H54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K54" t="s">
+        <v>79</v>
+      </c>
+      <c r="L54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1000</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" ref="E55:E56" si="16">1/D55</f>
+        <v>1E-3</v>
+      </c>
+      <c r="F55" s="4">
+        <f t="shared" ref="F55:F56" si="17">ROUND(B55*C55*E55*100*3,2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="G55">
+        <v>2016</v>
+      </c>
+      <c r="H55" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55" t="s">
+        <v>117</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K55" t="s">
+        <v>45</v>
+      </c>
+      <c r="L55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" s="7">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1000</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" si="16"/>
+        <v>1E-3</v>
+      </c>
+      <c r="F56" s="4">
+        <f t="shared" si="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="G56">
+        <v>2015</v>
+      </c>
+      <c r="H56" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56" t="s">
+        <v>128</v>
+      </c>
+      <c r="K56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>90</v>
+      </c>
+      <c r="E57" s="4">
+        <f t="shared" ref="E57:E58" si="18">1/D57</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="F57" s="4">
+        <f t="shared" ref="F57:F58" si="19">ROUND(B57*C57*E57*100*3,2)</f>
+        <v>6.67</v>
+      </c>
+      <c r="G57">
+        <v>2018</v>
+      </c>
+      <c r="H57" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" t="s">
+        <v>129</v>
+      </c>
+      <c r="J57" t="s">
+        <v>116</v>
+      </c>
+      <c r="K57" t="s">
+        <v>48</v>
+      </c>
+      <c r="L57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" s="7">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>5000</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="18"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F58" s="4">
+        <f t="shared" si="19"/>
+        <v>0.12</v>
+      </c>
+      <c r="G58">
+        <v>2020</v>
+      </c>
+      <c r="H58" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K58" t="s">
+        <v>79</v>
+      </c>
+      <c r="L58" t="s">
+        <v>114</v>
+      </c>
+      <c r="M58" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I50" r:id="rId1" location="/metadata/131988" xr:uid="{B220D465-DA1C-4A0D-A692-C842A95FE5F2}"/>
+    <hyperlink ref="I58" r:id="rId2" xr:uid="{2E3D4E5B-A2BF-4891-945A-0ACA39A140AA}"/>
+    <hyperlink ref="I52" r:id="rId3" display="https://protect-au.mimecast.com/s/0Yd9CYWL4jILNYEAi0-ij7?domain=osf.io/" xr:uid="{9DC39983-D2E9-421E-B4B3-A0D0995BB0BF}"/>
+    <hyperlink ref="I53" r:id="rId4" display="https://protect-au.mimecast.com/s/0Yd9CYWL4jILNYEAi0-ij7?domain=osf.io/" xr:uid="{800D1A09-A20D-48CE-A3BB-2013201C2F45}"/>
+    <hyperlink ref="I54" r:id="rId5" display="https://protect-au.mimecast.com/s/0Yd9CYWL4jILNYEAi0-ij7?domain=osf.io/" xr:uid="{7DDF99EC-A458-4184-A9B4-3BE563863137}"/>
+    <hyperlink ref="I38" r:id="rId6" location="/metadata/32368" xr:uid="{0ABA7C62-409C-426D-A626-2A8A6ED63EBD}"/>
+    <hyperlink ref="I37" r:id="rId7" location="/metadata/32368" xr:uid="{2A097C8C-8CE4-4A56-A774-08985F743228}"/>
+    <hyperlink ref="I36" r:id="rId8" location="/metadata/32368" xr:uid="{3F4399DD-3529-4F4D-B07C-8B8924594C84}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
--- a/DataQuality_Models.xlsx
+++ b/DataQuality_Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ozminerals-my.sharepoint.com/personal/richard_scott_ozminerals_com/Documents/Exploration/Geoscience-Data-Quality-for-Machine-Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="8_{34DC4501-B446-489E-96F6-9298FA39CBF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A7A9896A-878C-4EFF-9ABF-B24911E6D85B}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="8_{34DC4501-B446-489E-96F6-9298FA39CBF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{270FDE59-0B76-4FA1-9655-0E098232E700}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9DEDE5E-4471-4F5A-AC8B-D4F64EE1811C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="135">
   <si>
     <t>Dataset</t>
   </si>
@@ -433,6 +433,12 @@
   </si>
   <si>
     <t>AusMoho</t>
+  </si>
+  <si>
+    <t>National Weathering Intensity Index</t>
+  </si>
+  <si>
+    <t>Moho Work in Progress</t>
   </si>
 </sst>
 </file>
@@ -854,8 +860,8 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3027,6 +3033,9 @@
       <c r="I56" t="s">
         <v>128</v>
       </c>
+      <c r="J56" t="s">
+        <v>133</v>
+      </c>
       <c r="K56" t="s">
         <v>45</v>
       </c>
@@ -3103,6 +3112,9 @@
       </c>
       <c r="I58" s="2" t="s">
         <v>125</v>
+      </c>
+      <c r="J58" t="s">
+        <v>134</v>
       </c>
       <c r="K58" t="s">
         <v>79</v>

--- a/DataQuality_Models.xlsx
+++ b/DataQuality_Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ozminerals-my.sharepoint.com/personal/richard_scott_ozminerals_com/Documents/Exploration/Geoscience-Data-Quality-for-Machine-Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="8_{34DC4501-B446-489E-96F6-9298FA39CBF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{270FDE59-0B76-4FA1-9655-0E098232E700}"/>
+  <xr:revisionPtr revIDLastSave="243" documentId="8_{34DC4501-B446-489E-96F6-9298FA39CBF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{73B1DE10-58CD-4712-B49B-E50F9FD8F345}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9DEDE5E-4471-4F5A-AC8B-D4F64EE1811C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="148">
   <si>
     <t>Dataset</t>
   </si>
@@ -402,15 +402,6 @@
     <t>Hydrology</t>
   </si>
   <si>
-    <t>https://ecat.ga.gov.au/geonetwork/srv/eng/catalog.search#/metadata/131978</t>
-  </si>
-  <si>
-    <t>https://ecat.ga.gov.au/geonetwork/srv/eng/catalog.search#/metadata/131974</t>
-  </si>
-  <si>
-    <t>https://ecat.ga.gov.au/geonetwork/srv/eng/catalog.search#/metadata/131988</t>
-  </si>
-  <si>
     <t>http://http://rses.anu.edu.au/seismology/AuSREM/AusMoho/</t>
   </si>
   <si>
@@ -439,6 +430,54 @@
   </si>
   <si>
     <t>Moho Work in Progress</t>
+  </si>
+  <si>
+    <t>http://pid.geoscience.gov.au/dataset/ga/132275</t>
+  </si>
+  <si>
+    <t>http://pid.geoscience.gov.au/dataset/ga/131519</t>
+  </si>
+  <si>
+    <t>http://pid.geoscience.gov.au/dataset/ga/131505</t>
+  </si>
+  <si>
+    <t>http://pid.geoscience.gov.au/dataset/ga/131512</t>
+  </si>
+  <si>
+    <t>TMI 1VD</t>
+  </si>
+  <si>
+    <t>TMI RTP (reduced to pole)</t>
+  </si>
+  <si>
+    <t>TMI (total magnetic intensity) 80m</t>
+  </si>
+  <si>
+    <t>TMI (total magnetic intensity) 40m</t>
+  </si>
+  <si>
+    <t>Radiometric Grid of Australia (Radmap) v4 2019, filtered terrestrial dose rate</t>
+  </si>
+  <si>
+    <t>Radiometric Grid of Australia (Radmap) v4 2019, filtered pct potassium grid</t>
+  </si>
+  <si>
+    <t>Radiometric Grid of Australia (Radmap) v4 2019, filtered ppm thorium</t>
+  </si>
+  <si>
+    <t>Radiometric Grid of Australia (Radmap) v4 2019, filtered ppm uranium</t>
+  </si>
+  <si>
+    <t>http://pid.geoscience.gov.au/dataset/ga/131960</t>
+  </si>
+  <si>
+    <t>http://pid.geoscience.gov.au/dataset/ga/131974</t>
+  </si>
+  <si>
+    <t>http://pid.geoscience.gov.au/dataset/ga/131988</t>
+  </si>
+  <si>
+    <t>http://pid.geoscience.gov.au/dataset/ga/131978</t>
   </si>
 </sst>
 </file>
@@ -859,9 +898,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63D4C59-F36B-48A1-AE9A-D5AD99EC9BB5}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2281,7 +2320,7 @@
         <v>4</v>
       </c>
       <c r="I35" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K35" t="s">
         <v>48</v>
@@ -2318,7 +2357,7 @@
         <v>4</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K36" t="s">
         <v>48</v>
@@ -2352,7 +2391,7 @@
         <v>4</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K37" t="s">
         <v>48</v>
@@ -2386,7 +2425,7 @@
         <v>4</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K38" t="s">
         <v>48</v>
@@ -2598,6 +2637,12 @@
       <c r="H44" t="s">
         <v>4</v>
       </c>
+      <c r="I44" t="s">
+        <v>134</v>
+      </c>
+      <c r="J44" t="s">
+        <v>138</v>
+      </c>
       <c r="K44" t="s">
         <v>79</v>
       </c>
@@ -2632,6 +2677,12 @@
       <c r="H45" t="s">
         <v>4</v>
       </c>
+      <c r="I45" t="s">
+        <v>135</v>
+      </c>
+      <c r="J45" t="s">
+        <v>139</v>
+      </c>
       <c r="K45" t="s">
         <v>79</v>
       </c>
@@ -2666,6 +2717,12 @@
       <c r="H46" t="s">
         <v>4</v>
       </c>
+      <c r="I46" t="s">
+        <v>132</v>
+      </c>
+      <c r="J46" t="s">
+        <v>136</v>
+      </c>
       <c r="K46" t="s">
         <v>79</v>
       </c>
@@ -2700,6 +2757,12 @@
       <c r="H47" t="s">
         <v>4</v>
       </c>
+      <c r="I47" t="s">
+        <v>133</v>
+      </c>
+      <c r="J47" t="s">
+        <v>137</v>
+      </c>
       <c r="K47" t="s">
         <v>79</v>
       </c>
@@ -2734,6 +2797,12 @@
       <c r="H48" t="s">
         <v>4</v>
       </c>
+      <c r="I48" t="s">
+        <v>144</v>
+      </c>
+      <c r="J48" t="s">
+        <v>140</v>
+      </c>
       <c r="K48" t="s">
         <v>79</v>
       </c>
@@ -2769,7 +2838,10 @@
         <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>123</v>
+        <v>145</v>
+      </c>
+      <c r="J49" t="s">
+        <v>143</v>
       </c>
       <c r="K49" t="s">
         <v>79</v>
@@ -2805,8 +2877,11 @@
       <c r="H50" t="s">
         <v>4</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>124</v>
+      <c r="I50" t="s">
+        <v>146</v>
+      </c>
+      <c r="J50" t="s">
+        <v>142</v>
       </c>
       <c r="K50" t="s">
         <v>79</v>
@@ -2843,7 +2918,10 @@
         <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>122</v>
+        <v>147</v>
+      </c>
+      <c r="J51" t="s">
+        <v>141</v>
       </c>
       <c r="K51" t="s">
         <v>79</v>
@@ -2880,7 +2958,7 @@
         <v>4</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K52" t="s">
         <v>79</v>
@@ -2917,7 +2995,7 @@
         <v>4</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K53" t="s">
         <v>79</v>
@@ -2954,7 +3032,7 @@
         <v>4</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K54" t="s">
         <v>79</v>
@@ -3031,10 +3109,10 @@
         <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J56" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K56" t="s">
         <v>45</v>
@@ -3071,7 +3149,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J57" t="s">
         <v>116</v>
@@ -3085,7 +3163,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -3111,10 +3189,10 @@
         <v>4</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J58" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K58" t="s">
         <v>79</v>
@@ -3123,21 +3201,20 @@
         <v>114</v>
       </c>
       <c r="M58" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I50" r:id="rId1" location="/metadata/131988" xr:uid="{B220D465-DA1C-4A0D-A692-C842A95FE5F2}"/>
-    <hyperlink ref="I58" r:id="rId2" xr:uid="{2E3D4E5B-A2BF-4891-945A-0ACA39A140AA}"/>
-    <hyperlink ref="I52" r:id="rId3" display="https://protect-au.mimecast.com/s/0Yd9CYWL4jILNYEAi0-ij7?domain=osf.io/" xr:uid="{9DC39983-D2E9-421E-B4B3-A0D0995BB0BF}"/>
-    <hyperlink ref="I53" r:id="rId4" display="https://protect-au.mimecast.com/s/0Yd9CYWL4jILNYEAi0-ij7?domain=osf.io/" xr:uid="{800D1A09-A20D-48CE-A3BB-2013201C2F45}"/>
-    <hyperlink ref="I54" r:id="rId5" display="https://protect-au.mimecast.com/s/0Yd9CYWL4jILNYEAi0-ij7?domain=osf.io/" xr:uid="{7DDF99EC-A458-4184-A9B4-3BE563863137}"/>
-    <hyperlink ref="I38" r:id="rId6" location="/metadata/32368" xr:uid="{0ABA7C62-409C-426D-A626-2A8A6ED63EBD}"/>
-    <hyperlink ref="I37" r:id="rId7" location="/metadata/32368" xr:uid="{2A097C8C-8CE4-4A56-A774-08985F743228}"/>
-    <hyperlink ref="I36" r:id="rId8" location="/metadata/32368" xr:uid="{3F4399DD-3529-4F4D-B07C-8B8924594C84}"/>
+    <hyperlink ref="I58" r:id="rId1" xr:uid="{2E3D4E5B-A2BF-4891-945A-0ACA39A140AA}"/>
+    <hyperlink ref="I52" r:id="rId2" display="https://protect-au.mimecast.com/s/0Yd9CYWL4jILNYEAi0-ij7?domain=osf.io/" xr:uid="{9DC39983-D2E9-421E-B4B3-A0D0995BB0BF}"/>
+    <hyperlink ref="I53" r:id="rId3" display="https://protect-au.mimecast.com/s/0Yd9CYWL4jILNYEAi0-ij7?domain=osf.io/" xr:uid="{800D1A09-A20D-48CE-A3BB-2013201C2F45}"/>
+    <hyperlink ref="I54" r:id="rId4" display="https://protect-au.mimecast.com/s/0Yd9CYWL4jILNYEAi0-ij7?domain=osf.io/" xr:uid="{7DDF99EC-A458-4184-A9B4-3BE563863137}"/>
+    <hyperlink ref="I38" r:id="rId5" location="/metadata/32368" xr:uid="{0ABA7C62-409C-426D-A626-2A8A6ED63EBD}"/>
+    <hyperlink ref="I37" r:id="rId6" location="/metadata/32368" xr:uid="{2A097C8C-8CE4-4A56-A774-08985F743228}"/>
+    <hyperlink ref="I36" r:id="rId7" location="/metadata/32368" xr:uid="{3F4399DD-3529-4F4D-B07C-8B8924594C84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>
--- a/DataQuality_Models.xlsx
+++ b/DataQuality_Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ozminerals-my.sharepoint.com/personal/richard_scott_ozminerals_com/Documents/Exploration/Geoscience-Data-Quality-for-Machine-Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="243" documentId="8_{34DC4501-B446-489E-96F6-9298FA39CBF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{73B1DE10-58CD-4712-B49B-E50F9FD8F345}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="8_{34DC4501-B446-489E-96F6-9298FA39CBF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4FFB34DC-385C-4BB3-8CB3-3A4C9406A8B5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9DEDE5E-4471-4F5A-AC8B-D4F64EE1811C}"/>
   </bookViews>
@@ -898,9 +898,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63D4C59-F36B-48A1-AE9A-D5AD99EC9BB5}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2778,7 +2778,8 @@
         <v>3</v>
       </c>
       <c r="C48" s="7">
-        <v>1</v>
+        <f t="shared" ref="C48:C51" si="16">47.23/48.27</f>
+        <v>0.97845452662108956</v>
       </c>
       <c r="D48">
         <v>110</v>
@@ -2789,7 +2790,7 @@
       </c>
       <c r="F48" s="4">
         <f t="shared" si="15"/>
-        <v>8.18</v>
+        <v>8.01</v>
       </c>
       <c r="G48">
         <v>2019</v>
@@ -2818,7 +2819,8 @@
         <v>3</v>
       </c>
       <c r="C49" s="7">
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0.97845452662108956</v>
       </c>
       <c r="D49">
         <v>110</v>
@@ -2829,7 +2831,7 @@
       </c>
       <c r="F49" s="4">
         <f t="shared" si="15"/>
-        <v>8.18</v>
+        <v>8.01</v>
       </c>
       <c r="G49">
         <v>2019</v>
@@ -2858,7 +2860,8 @@
         <v>3</v>
       </c>
       <c r="C50" s="7">
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0.97845452662108956</v>
       </c>
       <c r="D50">
         <v>110</v>
@@ -2869,7 +2872,7 @@
       </c>
       <c r="F50" s="4">
         <f t="shared" si="15"/>
-        <v>8.18</v>
+        <v>8.01</v>
       </c>
       <c r="G50">
         <v>2019</v>
@@ -2898,7 +2901,8 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0.97845452662108956</v>
       </c>
       <c r="D51">
         <v>110</v>
@@ -2909,7 +2913,7 @@
       </c>
       <c r="F51" s="4">
         <f t="shared" si="15"/>
-        <v>8.18</v>
+        <v>8.01</v>
       </c>
       <c r="G51">
         <v>2019</v>
@@ -3055,11 +3059,11 @@
         <v>1000</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" ref="E55:E56" si="16">1/D55</f>
+        <f t="shared" ref="E55:E56" si="17">1/D55</f>
         <v>1E-3</v>
       </c>
       <c r="F55" s="4">
-        <f t="shared" ref="F55:F56" si="17">ROUND(B55*C55*E55*100*3,2)</f>
+        <f t="shared" ref="F55:F56" si="18">ROUND(B55*C55*E55*100*3,2)</f>
         <v>0.6</v>
       </c>
       <c r="G55">
@@ -3095,11 +3099,11 @@
         <v>1000</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1E-3</v>
       </c>
       <c r="F56" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
       <c r="G56">
@@ -3135,11 +3139,11 @@
         <v>90</v>
       </c>
       <c r="E57" s="4">
-        <f t="shared" ref="E57:E58" si="18">1/D57</f>
+        <f t="shared" ref="E57:E58" si="19">1/D57</f>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="F57" s="4">
-        <f t="shared" ref="F57:F58" si="19">ROUND(B57*C57*E57*100*3,2)</f>
+        <f t="shared" ref="F57:F58" si="20">ROUND(B57*C57*E57*100*3,2)</f>
         <v>6.67</v>
       </c>
       <c r="G57">
@@ -3175,11 +3179,11 @@
         <v>5000</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F58" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.12</v>
       </c>
       <c r="G58">

--- a/DataQuality_Models.xlsx
+++ b/DataQuality_Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ozminerals-my.sharepoint.com/personal/richard_scott_ozminerals_com/Documents/Exploration/Geoscience-Data-Quality-for-Machine-Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="8_{34DC4501-B446-489E-96F6-9298FA39CBF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4FFB34DC-385C-4BB3-8CB3-3A4C9406A8B5}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="8_{34DC4501-B446-489E-96F6-9298FA39CBF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C370365B-81EF-428D-AD6D-367A6FE5C788}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9DEDE5E-4471-4F5A-AC8B-D4F64EE1811C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="150">
   <si>
     <t>Dataset</t>
   </si>
@@ -478,6 +478,12 @@
   </si>
   <si>
     <t>http://pid.geoscience.gov.au/dataset/ga/131978</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Waiting for details to be put online by GA</t>
   </si>
 </sst>
 </file>
@@ -896,11 +902,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63D4C59-F36B-48A1-AE9A-D5AD99EC9BB5}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48:C51"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L40" sqref="L40:L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -918,7 +924,7 @@
     <col min="12" max="12" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:14" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -958,8 +964,11 @@
       <c r="M1" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1003,7 +1012,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1047,7 +1056,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1091,7 +1100,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -1135,7 +1144,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1176,7 +1185,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1217,7 +1226,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1258,7 +1267,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1299,7 +1308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1340,7 +1349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1381,7 +1390,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1422,7 +1431,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1463,7 +1472,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1504,7 +1513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1545,7 +1554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2213,7 +2222,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -2251,7 +2260,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -2292,7 +2301,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -2332,7 +2341,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -2366,7 +2375,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -2400,7 +2409,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>92</v>
       </c>
@@ -2434,7 +2443,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -2474,7 +2483,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -2505,10 +2514,13 @@
         <v>79</v>
       </c>
       <c r="L40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>13</v>
+      </c>
+      <c r="N40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -2539,10 +2551,13 @@
         <v>79</v>
       </c>
       <c r="L41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>13</v>
+      </c>
+      <c r="N41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>99</v>
       </c>
@@ -2573,10 +2588,13 @@
         <v>79</v>
       </c>
       <c r="L42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>13</v>
+      </c>
+      <c r="N42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -2607,10 +2625,13 @@
         <v>79</v>
       </c>
       <c r="L43" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>13</v>
+      </c>
+      <c r="N43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -2650,7 +2671,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -2690,7 +2711,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -2730,7 +2751,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>104</v>
       </c>
@@ -2770,7 +2791,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>105</v>
       </c>

--- a/DataQuality_Models.xlsx
+++ b/DataQuality_Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ozminerals-my.sharepoint.com/personal/richard_scott_ozminerals_com/Documents/Exploration/Geoscience-Data-Quality-for-Machine-Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="250" documentId="8_{34DC4501-B446-489E-96F6-9298FA39CBF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C370365B-81EF-428D-AD6D-367A6FE5C788}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="8_{34DC4501-B446-489E-96F6-9298FA39CBF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D234FC52-F80F-4AEF-8F81-FF98D7D11D44}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9DEDE5E-4471-4F5A-AC8B-D4F64EE1811C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="151">
   <si>
     <t>Dataset</t>
   </si>
@@ -405,9 +405,6 @@
     <t>http://http://rses.anu.edu.au/seismology/AuSREM/AusMoho/</t>
   </si>
   <si>
-    <t xml:space="preserve">Work in progress - </t>
-  </si>
-  <si>
     <t>https://osf.io/twksd/</t>
   </si>
   <si>
@@ -484,6 +481,12 @@
   </si>
   <si>
     <t>Waiting for details to be put online by GA</t>
+  </si>
+  <si>
+    <t>Work in progress from correspondence</t>
+  </si>
+  <si>
+    <t>Derived</t>
   </si>
 </sst>
 </file>
@@ -906,7 +909,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L40" sqref="L40:L43"/>
+      <selection pane="bottomLeft" activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -965,7 +968,7 @@
         <v>88</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1184,6 +1187,9 @@
       <c r="L6" t="s">
         <v>30</v>
       </c>
+      <c r="M6" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
@@ -1225,6 +1231,9 @@
       <c r="L7" t="s">
         <v>30</v>
       </c>
+      <c r="M7" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
@@ -1266,6 +1275,9 @@
       <c r="L8" t="s">
         <v>30</v>
       </c>
+      <c r="M8" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
@@ -1307,6 +1319,9 @@
       <c r="L9" t="s">
         <v>30</v>
       </c>
+      <c r="M9" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
@@ -1348,6 +1363,9 @@
       <c r="L10" t="s">
         <v>30</v>
       </c>
+      <c r="M10" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
@@ -1389,6 +1407,9 @@
       <c r="L11" t="s">
         <v>30</v>
       </c>
+      <c r="M11" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
@@ -1430,6 +1451,9 @@
       <c r="L12" t="s">
         <v>30</v>
       </c>
+      <c r="M12" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
@@ -1471,6 +1495,9 @@
       <c r="L13" t="s">
         <v>30</v>
       </c>
+      <c r="M13" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
@@ -1512,6 +1539,9 @@
       <c r="L14" t="s">
         <v>30</v>
       </c>
+      <c r="M14" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
@@ -1553,6 +1583,9 @@
       <c r="L15" t="s">
         <v>30</v>
       </c>
+      <c r="M15" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
@@ -1594,6 +1627,9 @@
       <c r="L16" t="s">
         <v>30</v>
       </c>
+      <c r="M16" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
@@ -1635,6 +1671,9 @@
       <c r="L17" t="s">
         <v>30</v>
       </c>
+      <c r="M17" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
@@ -1676,6 +1715,9 @@
       <c r="L18" t="s">
         <v>30</v>
       </c>
+      <c r="M18" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
@@ -2329,7 +2371,7 @@
         <v>4</v>
       </c>
       <c r="I35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K35" t="s">
         <v>48</v>
@@ -2366,7 +2408,7 @@
         <v>4</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K36" t="s">
         <v>48</v>
@@ -2400,7 +2442,7 @@
         <v>4</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K37" t="s">
         <v>48</v>
@@ -2434,7 +2476,7 @@
         <v>4</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K38" t="s">
         <v>48</v>
@@ -2517,7 +2559,7 @@
         <v>13</v>
       </c>
       <c r="N40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2554,7 +2596,7 @@
         <v>13</v>
       </c>
       <c r="N41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2591,7 +2633,7 @@
         <v>13</v>
       </c>
       <c r="N42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2628,7 +2670,7 @@
         <v>13</v>
       </c>
       <c r="N43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2659,16 +2701,19 @@
         <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K44" t="s">
         <v>79</v>
       </c>
       <c r="L44" t="s">
         <v>114</v>
+      </c>
+      <c r="M44" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2699,16 +2744,19 @@
         <v>4</v>
       </c>
       <c r="I45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K45" t="s">
         <v>79</v>
       </c>
       <c r="L45" t="s">
         <v>114</v>
+      </c>
+      <c r="M45" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2739,16 +2787,19 @@
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K46" t="s">
         <v>79</v>
       </c>
       <c r="L46" t="s">
         <v>114</v>
+      </c>
+      <c r="M46" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2779,16 +2830,19 @@
         <v>4</v>
       </c>
       <c r="I47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K47" t="s">
         <v>79</v>
       </c>
       <c r="L47" t="s">
         <v>114</v>
+      </c>
+      <c r="M47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2820,10 +2874,10 @@
         <v>4</v>
       </c>
       <c r="I48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K48" t="s">
         <v>79</v>
@@ -2831,8 +2885,11 @@
       <c r="L48" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="M48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -2861,10 +2918,10 @@
         <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K49" t="s">
         <v>79</v>
@@ -2872,8 +2929,11 @@
       <c r="L49" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="M49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -2902,10 +2962,10 @@
         <v>4</v>
       </c>
       <c r="I50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K50" t="s">
         <v>79</v>
@@ -2913,8 +2973,11 @@
       <c r="L50" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="M50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>108</v>
       </c>
@@ -2943,10 +3006,10 @@
         <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K51" t="s">
         <v>79</v>
@@ -2954,8 +3017,11 @@
       <c r="L51" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="M51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -2983,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K52" t="s">
         <v>79</v>
@@ -2991,8 +3057,11 @@
       <c r="L52" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="M52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -3020,7 +3089,7 @@
         <v>4</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K53" t="s">
         <v>79</v>
@@ -3028,8 +3097,11 @@
       <c r="L53" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="M53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -3057,7 +3129,7 @@
         <v>4</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K54" t="s">
         <v>79</v>
@@ -3065,8 +3137,11 @@
       <c r="L54" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="M54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>110</v>
       </c>
@@ -3105,8 +3180,11 @@
       <c r="L55" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="M55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -3134,10 +3212,10 @@
         <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K56" t="s">
         <v>45</v>
@@ -3145,8 +3223,11 @@
       <c r="L56" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="M56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>115</v>
       </c>
@@ -3174,7 +3255,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J57" t="s">
         <v>116</v>
@@ -3185,10 +3266,13 @@
       <c r="L57" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="M57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -3217,7 +3301,7 @@
         <v>122</v>
       </c>
       <c r="J58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K58" t="s">
         <v>79</v>
@@ -3226,7 +3310,10 @@
         <v>114</v>
       </c>
       <c r="M58" t="s">
-        <v>123</v>
+        <v>81</v>
+      </c>
+      <c r="N58" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/DataQuality_Models.xlsx
+++ b/DataQuality_Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ozminerals-my.sharepoint.com/personal/richard_scott_ozminerals_com/Documents/Exploration/Geoscience-Data-Quality-for-Machine-Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="8_{34DC4501-B446-489E-96F6-9298FA39CBF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D234FC52-F80F-4AEF-8F81-FF98D7D11D44}"/>
+  <xr:revisionPtr revIDLastSave="266" documentId="8_{34DC4501-B446-489E-96F6-9298FA39CBF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{89AC6474-FDA5-41E5-98AC-D15E8DE35ED8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9DEDE5E-4471-4F5A-AC8B-D4F64EE1811C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="152">
   <si>
     <t>Dataset</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>Derived</t>
+  </si>
+  <si>
+    <t>Combination</t>
   </si>
 </sst>
 </file>
@@ -909,7 +912,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M44" sqref="M44"/>
+      <selection pane="bottomLeft" activeCell="M40" sqref="M40:M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2558,6 +2561,9 @@
       <c r="L40" t="s">
         <v>13</v>
       </c>
+      <c r="M40" t="s">
+        <v>151</v>
+      </c>
       <c r="N40" t="s">
         <v>148</v>
       </c>
@@ -2595,6 +2601,9 @@
       <c r="L41" t="s">
         <v>13</v>
       </c>
+      <c r="M41" t="s">
+        <v>151</v>
+      </c>
       <c r="N41" t="s">
         <v>148</v>
       </c>
@@ -2632,6 +2641,9 @@
       <c r="L42" t="s">
         <v>13</v>
       </c>
+      <c r="M42" t="s">
+        <v>151</v>
+      </c>
       <c r="N42" t="s">
         <v>148</v>
       </c>
@@ -2668,6 +2680,9 @@
       </c>
       <c r="L43" t="s">
         <v>13</v>
+      </c>
+      <c r="M43" t="s">
+        <v>151</v>
       </c>
       <c r="N43" t="s">
         <v>148</v>

--- a/DataQuality_Models.xlsx
+++ b/DataQuality_Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ozminerals-my.sharepoint.com/personal/richard_scott_ozminerals_com/Documents/Exploration/Geoscience-Data-Quality-for-Machine-Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="8_{34DC4501-B446-489E-96F6-9298FA39CBF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{89AC6474-FDA5-41E5-98AC-D15E8DE35ED8}"/>
+  <xr:revisionPtr revIDLastSave="296" documentId="8_{34DC4501-B446-489E-96F6-9298FA39CBF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7B37867F-B15B-4256-AC64-A9EE70358FDE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9DEDE5E-4471-4F5A-AC8B-D4F64EE1811C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="153">
   <si>
     <t>Dataset</t>
   </si>
@@ -490,6 +490,9 @@
   </si>
   <si>
     <t>Combination</t>
+  </si>
+  <si>
+    <t>Use</t>
   </si>
 </sst>
 </file>
@@ -908,2438 +911,2523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63D4C59-F36B-48A1-AE9A-D5AD99EC9BB5}">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M40" sqref="M40:M43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="67.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="73.5546875" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="67.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="73.5546875" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1">
+    <row r="1" spans="1:15" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="C2" s="7">
+      <c r="D2" s="7">
         <f>48.27/48.27</f>
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>800</v>
       </c>
-      <c r="E2" s="4">
-        <f>1/D2</f>
+      <c r="F2" s="4">
+        <f>1/E2</f>
         <v>1.25E-3</v>
       </c>
-      <c r="F2" s="4">
-        <f>ROUND(B2*C2*E2*100*3,2)</f>
+      <c r="G2" s="4">
+        <f>ROUND(C2*D2*F2*100*3,2)</f>
         <v>1.1299999999999999</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2016</v>
       </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>79</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>33</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3" s="7">
         <f>48.27/48.27</f>
         <v>1</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>800</v>
       </c>
-      <c r="E3" s="4">
-        <f>1/D3</f>
+      <c r="F3" s="4">
+        <f>1/E3</f>
         <v>1.25E-3</v>
       </c>
-      <c r="F3" s="4">
-        <f t="shared" ref="F3:F30" si="0">ROUND(B3*C3*E3*100*3,2)</f>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G30" si="0">ROUND(C3*D3*F3*100*3,2)</f>
         <v>1.1299999999999999</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2016</v>
       </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>79</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>58</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C4" s="7">
-        <f t="shared" ref="C4:C5" si="1">48.27/48.27</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D5" si="1">48.27/48.27</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
         <v>80</v>
       </c>
-      <c r="E4" s="4">
-        <f t="shared" ref="E4:E5" si="2">1/D4</f>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F5" si="2">1/E4</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <f t="shared" si="0"/>
         <v>11.25</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2015</v>
       </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>79</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>73</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>59</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
+      <c r="D5" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D5" s="8">
+      <c r="E5" s="8">
         <v>80</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <f t="shared" si="2"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>11.25</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2015</v>
       </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>73</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="D6" s="7">
         <f>48.27/48.27</f>
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>90</v>
       </c>
-      <c r="E6" s="4">
-        <f t="shared" ref="E6:E22" si="3">1/D6</f>
+      <c r="F6" s="4">
+        <f t="shared" ref="F6:F22" si="3">1/E6</f>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>6.67</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2012</v>
       </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
       <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
         <v>34</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>28</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>30</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="C7" s="7">
-        <f t="shared" ref="C7:C18" si="4">48.27/48.27</f>
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="D7" s="7">
+        <f t="shared" ref="D7:D18" si="4">48.27/48.27</f>
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>90</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>6.67</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2012</v>
       </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
       <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
         <v>34</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>28</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>30</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="D8" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>90</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <f t="shared" si="0"/>
         <v>6.67</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2012</v>
       </c>
-      <c r="H8" t="s">
-        <v>4</v>
-      </c>
       <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
         <v>34</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>17</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>28</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>30</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="C9" s="7">
+      <c r="D9" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>90</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <f t="shared" si="0"/>
         <v>6.67</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2012</v>
       </c>
-      <c r="H9" t="s">
-        <v>4</v>
-      </c>
       <c r="I9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
         <v>34</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>18</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>28</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>30</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="D10" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>90</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <f t="shared" si="0"/>
         <v>6.67</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2012</v>
       </c>
-      <c r="H10" t="s">
-        <v>4</v>
-      </c>
       <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
         <v>34</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>19</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>28</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>30</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="C11" s="7">
+      <c r="D11" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>90</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <f t="shared" si="0"/>
         <v>6.67</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2012</v>
       </c>
-      <c r="H11" t="s">
-        <v>4</v>
-      </c>
       <c r="I11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
         <v>34</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>20</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>28</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>30</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="C12" s="7">
+      <c r="D12" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>90</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <f t="shared" si="0"/>
         <v>6.67</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2012</v>
       </c>
-      <c r="H12" t="s">
-        <v>4</v>
-      </c>
       <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
         <v>34</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>21</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>28</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>30</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="D13" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>90</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <f t="shared" si="0"/>
         <v>6.67</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>2012</v>
       </c>
-      <c r="H13" t="s">
-        <v>4</v>
-      </c>
       <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
         <v>34</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>22</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>28</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>30</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="C14" s="7">
+      <c r="D14" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>90</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <f t="shared" si="0"/>
         <v>6.67</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>2012</v>
       </c>
-      <c r="H14" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
         <v>34</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>23</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>28</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>30</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="C15" s="7">
+      <c r="D15" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>90</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <f t="shared" si="0"/>
         <v>6.67</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2012</v>
       </c>
-      <c r="H15" t="s">
-        <v>4</v>
-      </c>
       <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
         <v>34</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>24</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>28</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>30</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="C16" s="7">
+      <c r="D16" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>90</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <f t="shared" si="0"/>
         <v>6.67</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2012</v>
       </c>
-      <c r="H16" t="s">
-        <v>4</v>
-      </c>
       <c r="I16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
         <v>34</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>25</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>28</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>30</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>26</v>
       </c>
       <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="C17" s="7">
+      <c r="D17" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>90</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <f t="shared" si="0"/>
         <v>6.67</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>2012</v>
       </c>
-      <c r="H17" t="s">
-        <v>4</v>
-      </c>
       <c r="I17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
         <v>34</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>26</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>28</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>30</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>27</v>
       </c>
       <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>2</v>
       </c>
-      <c r="C18" s="7">
+      <c r="D18" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>90</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <f t="shared" si="0"/>
         <v>6.67</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2012</v>
       </c>
-      <c r="H18" t="s">
-        <v>4</v>
-      </c>
       <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
         <v>34</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>27</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>28</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>30</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="C19" s="7">
+      <c r="D19" s="7">
         <f>47.23/48.27</f>
         <v>0.97845452662108956</v>
       </c>
-      <c r="D19" s="8">
+      <c r="E19" s="8">
         <v>110</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <f t="shared" si="3"/>
         <v>9.0909090909090905E-3</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <f t="shared" si="0"/>
         <v>8.01</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2015</v>
       </c>
-      <c r="H19" t="s">
-        <v>4</v>
-      </c>
       <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>79</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>49</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>37</v>
       </c>
       <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>3</v>
       </c>
-      <c r="C20" s="7">
-        <f t="shared" ref="C20:C22" si="5">47.23/48.27</f>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D22" si="5">47.23/48.27</f>
         <v>0.97845452662108956</v>
       </c>
-      <c r="D20" s="8">
+      <c r="E20" s="8">
         <v>110</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <f t="shared" si="3"/>
         <v>9.0909090909090905E-3</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <f t="shared" si="0"/>
         <v>8.01</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2015</v>
       </c>
-      <c r="H20" t="s">
-        <v>4</v>
-      </c>
       <c r="I20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
         <v>35</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>79</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>49</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>38</v>
       </c>
       <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>3</v>
       </c>
-      <c r="C21" s="7">
+      <c r="D21" s="7">
         <f t="shared" si="5"/>
         <v>0.97845452662108956</v>
       </c>
-      <c r="D21" s="8">
+      <c r="E21" s="8">
         <v>110</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <f t="shared" si="3"/>
         <v>9.0909090909090905E-3</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <f t="shared" si="0"/>
         <v>8.01</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2015</v>
       </c>
-      <c r="H21" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
         <v>35</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>79</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>49</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>39</v>
       </c>
       <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>3</v>
       </c>
-      <c r="C22" s="7">
+      <c r="D22" s="7">
         <f t="shared" si="5"/>
         <v>0.97845452662108956</v>
       </c>
-      <c r="D22" s="8">
+      <c r="E22" s="8">
         <v>110</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <f t="shared" si="3"/>
         <v>9.0909090909090905E-3</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <f t="shared" si="0"/>
         <v>8.01</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>2015</v>
       </c>
-      <c r="H22" t="s">
-        <v>4</v>
-      </c>
       <c r="I22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" t="s">
         <v>35</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>79</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>49</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>41</v>
       </c>
       <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>2</v>
       </c>
-      <c r="C23" s="7">
-        <v>1</v>
-      </c>
-      <c r="D23">
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>90</v>
       </c>
-      <c r="E23" s="4">
-        <f t="shared" ref="E23" si="6">1/D23</f>
+      <c r="F23" s="4">
+        <f t="shared" ref="F23" si="6">1/E23</f>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <f t="shared" si="0"/>
         <v>6.67</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>2015</v>
       </c>
-      <c r="H23" t="s">
-        <v>4</v>
-      </c>
       <c r="I23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="K23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>48</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>47</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>42</v>
       </c>
       <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
         <v>3</v>
       </c>
-      <c r="C24" s="7">
-        <v>1</v>
-      </c>
-      <c r="D24">
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24">
         <v>90</v>
       </c>
-      <c r="E24" s="4">
-        <f t="shared" ref="E24:E32" si="7">1/D24</f>
+      <c r="F24" s="4">
+        <f t="shared" ref="F24:F32" si="7">1/E24</f>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>2009</v>
       </c>
-      <c r="H24" t="s">
-        <v>4</v>
-      </c>
       <c r="I24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>45</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>51</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="7">
-        <v>1</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>1000</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <f t="shared" si="7"/>
         <v>1E-3</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>2012</v>
       </c>
-      <c r="H25" t="s">
-        <v>4</v>
-      </c>
       <c r="I25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" t="s">
         <v>62</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>63</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>48</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>52</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <v>1000</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <f t="shared" si="7"/>
         <v>1E-3</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="4">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2012</v>
       </c>
-      <c r="H26" t="s">
-        <v>4</v>
-      </c>
       <c r="I26" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
         <v>62</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>48</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>53</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7">
         <v>0.5</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1000</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="4">
         <f t="shared" si="7"/>
         <v>1E-3</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2012</v>
       </c>
-      <c r="H27" t="s">
-        <v>4</v>
-      </c>
       <c r="I27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
         <v>62</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>48</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>54</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1000</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <f t="shared" si="7"/>
         <v>1E-3</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>2012</v>
       </c>
-      <c r="H28" t="s">
-        <v>4</v>
-      </c>
       <c r="I28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" t="s">
         <v>62</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>48</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>57</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="H29" t="s">
-        <v>4</v>
-      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4"/>
       <c r="I29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" t="s">
         <v>55</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>84</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>48</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>75</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>3</v>
       </c>
-      <c r="C30" s="7">
-        <v>1</v>
-      </c>
-      <c r="D30">
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30">
         <v>20000</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <f t="shared" si="7"/>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>2019</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>76</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>77</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>79</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>80</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>82</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>2</v>
       </c>
-      <c r="C31" s="7">
-        <f>35.52/35.76*C32</f>
+      <c r="D31" s="7">
+        <f>35.52/35.76*D32</f>
         <v>0.98491216201097476</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>90</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <f t="shared" si="7"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="F31" s="4">
-        <f t="shared" ref="F31:F33" si="8">ROUND(B31*C31*E31*100*3,2)</f>
+      <c r="G31" s="4">
+        <f t="shared" ref="G31:G33" si="8">ROUND(C31*D31*F31*100*3,2)</f>
         <v>6.57</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>2012</v>
       </c>
-      <c r="H31" t="s">
-        <v>4</v>
-      </c>
       <c r="I31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" t="s">
         <v>34</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>28</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>83</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>2</v>
       </c>
-      <c r="C32" s="7">
+      <c r="D32" s="7">
         <f>50.56/50.99</f>
         <v>0.99156697391645421</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>90</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <f t="shared" si="7"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="4">
         <f t="shared" si="8"/>
         <v>6.61</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>2012</v>
       </c>
-      <c r="H32" t="s">
-        <v>4</v>
-      </c>
       <c r="I32" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" t="s">
         <v>34</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>28</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>54</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" s="7">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>1000</v>
       </c>
-      <c r="E33" s="4">
-        <f t="shared" ref="E33" si="9">1/D33</f>
+      <c r="F33" s="4">
+        <f t="shared" ref="F33" si="9">1/E33</f>
         <v>1E-3</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>2012</v>
       </c>
-      <c r="H33" t="s">
-        <v>4</v>
-      </c>
       <c r="I33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" t="s">
         <v>62</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>48</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>85</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" s="7">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1000</v>
       </c>
-      <c r="E34" s="4">
-        <f t="shared" ref="E34:E35" si="10">1/D34</f>
+      <c r="F34" s="4">
+        <f t="shared" ref="F34:F35" si="10">1/E34</f>
         <v>1E-3</v>
       </c>
-      <c r="F34" s="4">
-        <f t="shared" ref="F34:F35" si="11">ROUND(B34*C34*E34*100*3,2)</f>
+      <c r="G34" s="4">
+        <f t="shared" ref="G34:G35" si="11">ROUND(C34*D34*F34*100*3,2)</f>
         <v>0.2</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>2012</v>
       </c>
-      <c r="H34" t="s">
-        <v>4</v>
-      </c>
       <c r="I34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" t="s">
         <v>62</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>86</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>48</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>89</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>2</v>
       </c>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
-      <c r="D35">
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>12000</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <f t="shared" si="10"/>
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <f t="shared" si="11"/>
         <v>0.05</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>2020</v>
       </c>
-      <c r="H35" t="s">
-        <v>4</v>
-      </c>
       <c r="I35" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" t="s">
         <v>127</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>48</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>93</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="7">
-        <v>1</v>
-      </c>
-      <c r="D36">
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
+      <c r="E36">
         <v>5000</v>
       </c>
-      <c r="E36" s="4">
-        <f t="shared" ref="E36:E38" si="12">1/D36</f>
+      <c r="F36" s="4">
+        <f t="shared" ref="F36:F38" si="12">1/E36</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F36" s="4">
-        <f t="shared" ref="F36:F38" si="13">ROUND(B36*C36*E36*100*3,2)</f>
+      <c r="G36" s="4">
+        <f t="shared" ref="G36:G38" si="13">ROUND(C36*D36*F36*100*3,2)</f>
         <v>0</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>1987</v>
       </c>
-      <c r="H36" t="s">
-        <v>4</v>
-      </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>48</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="7">
-        <v>1</v>
-      </c>
-      <c r="D37">
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>5000</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <f t="shared" si="12"/>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>1987</v>
       </c>
-      <c r="H37" t="s">
-        <v>4</v>
-      </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>48</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="D38">
+      <c r="D38" s="7">
+        <v>1</v>
+      </c>
+      <c r="E38">
         <v>5000</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <f t="shared" si="12"/>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>1987</v>
       </c>
-      <c r="H38" t="s">
-        <v>4</v>
-      </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>48</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>95</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" s="7">
-        <v>1</v>
-      </c>
-      <c r="D39">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+      <c r="E39">
         <v>1000</v>
       </c>
-      <c r="E39" s="4">
-        <f t="shared" ref="E39:E54" si="14">1/D39</f>
+      <c r="F39" s="4">
+        <f t="shared" ref="F39:F54" si="14">1/E39</f>
         <v>1E-3</v>
       </c>
-      <c r="F39" s="4">
-        <f t="shared" ref="F39:F54" si="15">ROUND(B39*C39*E39*100*3,2)</f>
+      <c r="G39" s="4">
+        <f t="shared" ref="G39:G54" si="15">ROUND(C39*D39*F39*100*3,2)</f>
         <v>0.3</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>2012</v>
       </c>
-      <c r="H39" t="s">
-        <v>4</v>
-      </c>
       <c r="I39" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" t="s">
         <v>62</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>96</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>48</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>97</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>3</v>
       </c>
-      <c r="C40" s="7">
-        <v>1</v>
-      </c>
-      <c r="D40">
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40">
         <v>400</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <f t="shared" si="14"/>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <f t="shared" si="15"/>
         <v>2.25</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>2019</v>
       </c>
-      <c r="H40" t="s">
-        <v>4</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="I40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L40" t="s">
         <v>79</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>13</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>151</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>98</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>3</v>
       </c>
-      <c r="C41" s="7">
-        <v>1</v>
-      </c>
-      <c r="D41">
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
+      <c r="E41">
         <v>400</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <f t="shared" si="14"/>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <f t="shared" si="15"/>
         <v>2.25</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>2019</v>
       </c>
-      <c r="H41" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="I41" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" t="s">
         <v>79</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>13</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>151</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>99</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>3</v>
       </c>
-      <c r="C42" s="7">
-        <v>1</v>
-      </c>
-      <c r="D42">
+      <c r="D42" s="7">
+        <v>1</v>
+      </c>
+      <c r="E42">
         <v>400</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="4">
         <f t="shared" si="14"/>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
         <f t="shared" si="15"/>
         <v>2.25</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>2019</v>
       </c>
-      <c r="H42" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="I42" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" t="s">
         <v>79</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>13</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>151</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>100</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>3</v>
       </c>
-      <c r="C43" s="7">
-        <v>1</v>
-      </c>
-      <c r="D43">
+      <c r="D43" s="7">
+        <v>1</v>
+      </c>
+      <c r="E43">
         <v>400</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <f t="shared" si="14"/>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
         <f t="shared" si="15"/>
         <v>2.25</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>2019</v>
       </c>
-      <c r="H43" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="I43" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" t="s">
         <v>79</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>13</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>151</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>101</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>3</v>
       </c>
-      <c r="C44" s="7">
-        <v>1</v>
-      </c>
-      <c r="D44">
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
+      <c r="E44">
         <v>80</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <f t="shared" si="14"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <f t="shared" si="15"/>
         <v>11.25</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>2019</v>
       </c>
-      <c r="H44" t="s">
-        <v>4</v>
-      </c>
       <c r="I44" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" t="s">
         <v>133</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>137</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>79</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>114</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>106</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>3</v>
       </c>
-      <c r="C45" s="7">
-        <v>1</v>
-      </c>
-      <c r="D45">
+      <c r="D45" s="7">
+        <v>1</v>
+      </c>
+      <c r="E45">
         <v>40</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <f t="shared" si="14"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <f t="shared" si="15"/>
         <v>22.5</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>2019</v>
       </c>
-      <c r="H45" t="s">
-        <v>4</v>
-      </c>
       <c r="I45" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" t="s">
         <v>134</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>138</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>79</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>114</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>103</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>3</v>
       </c>
-      <c r="C46" s="7">
-        <v>1</v>
-      </c>
-      <c r="D46">
+      <c r="D46" s="7">
+        <v>1</v>
+      </c>
+      <c r="E46">
         <v>80</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="4">
         <f t="shared" si="14"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <f t="shared" si="15"/>
         <v>11.25</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>2019</v>
       </c>
-      <c r="H46" t="s">
-        <v>4</v>
-      </c>
       <c r="I46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" t="s">
         <v>131</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>135</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>79</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>114</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>104</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>3</v>
       </c>
-      <c r="C47" s="7">
-        <v>1</v>
-      </c>
-      <c r="D47">
+      <c r="D47" s="7">
+        <v>1</v>
+      </c>
+      <c r="E47">
         <v>80</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <f t="shared" si="14"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <f t="shared" si="15"/>
         <v>11.25</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>2019</v>
       </c>
-      <c r="H47" t="s">
-        <v>4</v>
-      </c>
       <c r="I47" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" t="s">
         <v>132</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>136</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>79</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>114</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>105</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>3</v>
       </c>
-      <c r="C48" s="7">
-        <f t="shared" ref="C48:C51" si="16">47.23/48.27</f>
+      <c r="D48" s="7">
+        <f t="shared" ref="D48:D51" si="16">47.23/48.27</f>
         <v>0.97845452662108956</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>110</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <f t="shared" si="14"/>
         <v>9.0909090909090905E-3</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G48" s="4">
         <f t="shared" si="15"/>
         <v>8.01</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>2019</v>
       </c>
-      <c r="H48" t="s">
-        <v>4</v>
-      </c>
       <c r="I48" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" t="s">
         <v>143</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>139</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>79</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>114</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>102</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>3</v>
       </c>
-      <c r="C49" s="7">
+      <c r="D49" s="7">
         <f t="shared" si="16"/>
         <v>0.97845452662108956</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>110</v>
       </c>
-      <c r="E49" s="4">
+      <c r="F49" s="4">
         <f t="shared" si="14"/>
         <v>9.0909090909090905E-3</v>
       </c>
-      <c r="F49" s="4">
+      <c r="G49" s="4">
         <f t="shared" si="15"/>
         <v>8.01</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>2019</v>
       </c>
-      <c r="H49" t="s">
-        <v>4</v>
-      </c>
       <c r="I49" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" t="s">
         <v>144</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>142</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>79</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>114</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>107</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>3</v>
       </c>
-      <c r="C50" s="7">
+      <c r="D50" s="7">
         <f t="shared" si="16"/>
         <v>0.97845452662108956</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>110</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F50" s="4">
         <f t="shared" si="14"/>
         <v>9.0909090909090905E-3</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G50" s="4">
         <f t="shared" si="15"/>
         <v>8.01</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>2019</v>
       </c>
-      <c r="H50" t="s">
-        <v>4</v>
-      </c>
       <c r="I50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" t="s">
         <v>145</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>141</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>79</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>114</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>108</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>3</v>
       </c>
-      <c r="C51" s="7">
+      <c r="D51" s="7">
         <f t="shared" si="16"/>
         <v>0.97845452662108956</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>110</v>
       </c>
-      <c r="E51" s="4">
+      <c r="F51" s="4">
         <f t="shared" si="14"/>
         <v>9.0909090909090905E-3</v>
       </c>
-      <c r="F51" s="4">
+      <c r="G51" s="4">
         <f t="shared" si="15"/>
         <v>8.01</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>2019</v>
       </c>
-      <c r="H51" t="s">
-        <v>4</v>
-      </c>
       <c r="I51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J51" t="s">
         <v>146</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>140</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>79</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>114</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>109</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>2</v>
       </c>
-      <c r="C52" s="7">
-        <v>1</v>
-      </c>
-      <c r="D52">
+      <c r="D52" s="7">
+        <v>1</v>
+      </c>
+      <c r="E52">
         <v>10000</v>
       </c>
-      <c r="E52" s="4">
+      <c r="F52" s="4">
         <f t="shared" si="14"/>
         <v>1E-4</v>
       </c>
-      <c r="F52" s="4">
+      <c r="G52" s="4">
         <f t="shared" si="15"/>
         <v>0.06</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>2020</v>
       </c>
-      <c r="H52" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="9" t="s">
+      <c r="I52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>79</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>114</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>112</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>2</v>
       </c>
-      <c r="C53" s="7">
-        <v>1</v>
-      </c>
-      <c r="D53">
+      <c r="D53" s="7">
+        <v>1</v>
+      </c>
+      <c r="E53">
         <v>10000</v>
       </c>
-      <c r="E53" s="4">
+      <c r="F53" s="4">
         <f t="shared" si="14"/>
         <v>1E-4</v>
       </c>
-      <c r="F53" s="4">
+      <c r="G53" s="4">
         <f t="shared" si="15"/>
         <v>0.06</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>2020</v>
       </c>
-      <c r="H53" t="s">
-        <v>4</v>
-      </c>
-      <c r="I53" s="9" t="s">
+      <c r="I53" t="s">
+        <v>4</v>
+      </c>
+      <c r="J53" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>79</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>114</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>113</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>2</v>
       </c>
-      <c r="C54" s="7">
-        <v>1</v>
-      </c>
-      <c r="D54">
+      <c r="D54" s="7">
+        <v>1</v>
+      </c>
+      <c r="E54">
         <v>10000</v>
       </c>
-      <c r="E54" s="4">
+      <c r="F54" s="4">
         <f t="shared" si="14"/>
         <v>1E-4</v>
       </c>
-      <c r="F54" s="4">
+      <c r="G54" s="4">
         <f t="shared" si="15"/>
         <v>0.06</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>2020</v>
       </c>
-      <c r="H54" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="9" t="s">
+      <c r="I54" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>79</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>114</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>2</v>
       </c>
-      <c r="C55" s="7">
-        <v>1</v>
-      </c>
-      <c r="D55">
+      <c r="D55" s="7">
+        <v>1</v>
+      </c>
+      <c r="E55">
         <v>1000</v>
       </c>
-      <c r="E55" s="4">
-        <f t="shared" ref="E55:E56" si="17">1/D55</f>
+      <c r="F55" s="4">
+        <f t="shared" ref="F55:F56" si="17">1/E55</f>
         <v>1E-3</v>
       </c>
-      <c r="F55" s="4">
-        <f t="shared" ref="F55:F56" si="18">ROUND(B55*C55*E55*100*3,2)</f>
+      <c r="G55" s="4">
+        <f t="shared" ref="G55:G56" si="18">ROUND(C55*D55*F55*100*3,2)</f>
         <v>0.6</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>2016</v>
       </c>
-      <c r="H55" t="s">
-        <v>4</v>
-      </c>
       <c r="I55" t="s">
+        <v>4</v>
+      </c>
+      <c r="J55" t="s">
         <v>117</v>
       </c>
-      <c r="J55" s="5" t="s">
+      <c r="K55" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>45</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>119</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>111</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>2</v>
       </c>
-      <c r="C56" s="7">
-        <v>1</v>
-      </c>
-      <c r="D56">
+      <c r="D56" s="7">
+        <v>1</v>
+      </c>
+      <c r="E56">
         <v>1000</v>
       </c>
-      <c r="E56" s="4">
+      <c r="F56" s="4">
         <f t="shared" si="17"/>
         <v>1E-3</v>
       </c>
-      <c r="F56" s="4">
+      <c r="G56" s="4">
         <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>2015</v>
       </c>
-      <c r="H56" t="s">
-        <v>4</v>
-      </c>
       <c r="I56" t="s">
+        <v>4</v>
+      </c>
+      <c r="J56" t="s">
         <v>124</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>129</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>45</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>120</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>115</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>2</v>
       </c>
-      <c r="C57" s="7">
-        <v>1</v>
-      </c>
-      <c r="D57">
+      <c r="D57" s="7">
+        <v>1</v>
+      </c>
+      <c r="E57">
         <v>90</v>
       </c>
-      <c r="E57" s="4">
-        <f t="shared" ref="E57:E58" si="19">1/D57</f>
+      <c r="F57" s="4">
+        <f t="shared" ref="F57:F58" si="19">1/E57</f>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="F57" s="4">
-        <f t="shared" ref="F57:F58" si="20">ROUND(B57*C57*E57*100*3,2)</f>
+      <c r="G57" s="4">
+        <f t="shared" ref="G57:G58" si="20">ROUND(C57*D57*F57*100*3,2)</f>
         <v>6.67</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>2018</v>
       </c>
-      <c r="H57" t="s">
-        <v>4</v>
-      </c>
       <c r="I57" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" t="s">
         <v>125</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>116</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>48</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>47</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>128</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>2</v>
       </c>
-      <c r="C58" s="7">
-        <v>1</v>
-      </c>
-      <c r="D58">
+      <c r="D58" s="7">
+        <v>1</v>
+      </c>
+      <c r="E58">
         <v>5000</v>
       </c>
-      <c r="E58" s="4">
+      <c r="F58" s="4">
         <f t="shared" si="19"/>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F58" s="4">
+      <c r="G58" s="4">
         <f t="shared" si="20"/>
         <v>0.12</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>2020</v>
       </c>
-      <c r="H58" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>130</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>79</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>114</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>81</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>149</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I58" r:id="rId1" xr:uid="{2E3D4E5B-A2BF-4891-945A-0ACA39A140AA}"/>
-    <hyperlink ref="I52" r:id="rId2" display="https://protect-au.mimecast.com/s/0Yd9CYWL4jILNYEAi0-ij7?domain=osf.io/" xr:uid="{9DC39983-D2E9-421E-B4B3-A0D0995BB0BF}"/>
-    <hyperlink ref="I53" r:id="rId3" display="https://protect-au.mimecast.com/s/0Yd9CYWL4jILNYEAi0-ij7?domain=osf.io/" xr:uid="{800D1A09-A20D-48CE-A3BB-2013201C2F45}"/>
-    <hyperlink ref="I54" r:id="rId4" display="https://protect-au.mimecast.com/s/0Yd9CYWL4jILNYEAi0-ij7?domain=osf.io/" xr:uid="{7DDF99EC-A458-4184-A9B4-3BE563863137}"/>
-    <hyperlink ref="I38" r:id="rId5" location="/metadata/32368" xr:uid="{0ABA7C62-409C-426D-A626-2A8A6ED63EBD}"/>
-    <hyperlink ref="I37" r:id="rId6" location="/metadata/32368" xr:uid="{2A097C8C-8CE4-4A56-A774-08985F743228}"/>
-    <hyperlink ref="I36" r:id="rId7" location="/metadata/32368" xr:uid="{3F4399DD-3529-4F4D-B07C-8B8924594C84}"/>
+    <hyperlink ref="J58" r:id="rId1" xr:uid="{2E3D4E5B-A2BF-4891-945A-0ACA39A140AA}"/>
+    <hyperlink ref="J52" r:id="rId2" display="https://protect-au.mimecast.com/s/0Yd9CYWL4jILNYEAi0-ij7?domain=osf.io/" xr:uid="{9DC39983-D2E9-421E-B4B3-A0D0995BB0BF}"/>
+    <hyperlink ref="J53" r:id="rId3" display="https://protect-au.mimecast.com/s/0Yd9CYWL4jILNYEAi0-ij7?domain=osf.io/" xr:uid="{800D1A09-A20D-48CE-A3BB-2013201C2F45}"/>
+    <hyperlink ref="J54" r:id="rId4" display="https://protect-au.mimecast.com/s/0Yd9CYWL4jILNYEAi0-ij7?domain=osf.io/" xr:uid="{7DDF99EC-A458-4184-A9B4-3BE563863137}"/>
+    <hyperlink ref="J38" r:id="rId5" location="/metadata/32368" xr:uid="{0ABA7C62-409C-426D-A626-2A8A6ED63EBD}"/>
+    <hyperlink ref="J37" r:id="rId6" location="/metadata/32368" xr:uid="{2A097C8C-8CE4-4A56-A774-08985F743228}"/>
+    <hyperlink ref="J36" r:id="rId7" location="/metadata/32368" xr:uid="{3F4399DD-3529-4F4D-B07C-8B8924594C84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
